--- a/Data/Input/Monthly/Fields to be added on UI by Huphin_Monthly_06-03-2023.xlsx
+++ b/Data/Input/Monthly/Fields to be added on UI by Huphin_Monthly_06-03-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\Monthly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E9F8F7-790C-47C5-BC9B-095C54B50AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9369FEE-4FC0-4F97-8D51-3BF35B08E8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="5388" windowWidth="7500" windowHeight="3000" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyCust (2)" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="533">
   <si>
     <t>HC40T</t>
   </si>
@@ -1832,17 +1832,26 @@
     <t>Success</t>
   </si>
   <si>
-    <t>M:\2. Sales Department\Unipath\Invoices\Monthly\Invoices_05-03-2023\IN 22120685 - Monthly Scenario.pdf</t>
-  </si>
-  <si>
-    <t>IN 22120685</t>
+    <t>PO23000445</t>
+  </si>
+  <si>
+    <t>JO230201043</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Time Sheets\ExcelTimesheets\06-03-2023\JO230131043.xlsx</t>
+  </si>
+  <si>
+    <t>24/02/2023 08:00</t>
+  </si>
+  <si>
+    <t>28/02/2023 17:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1861,13 +1870,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1957,13 +1959,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1975,7 +1976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1986,9 +1987,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1998,8 +1999,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2338,7 +2339,7 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2453,13 +2454,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2913,8 +2914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD80626F-4EE6-4A1B-BAC6-4FE9B121A377}">
   <dimension ref="A1:AK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F3" sqref="F2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2970,99 +2971,95 @@
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13"/>
-      <c r="AK1" s="13"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>516</v>
       </c>
       <c r="C2" t="s">
         <v>517</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>12345</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>511</v>
       </c>
       <c r="K2" t="s">
@@ -3080,10 +3077,10 @@
       <c r="O2" t="s">
         <v>515</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="20" t="s">
         <v>524</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="20" t="s">
         <v>525</v>
       </c>
       <c r="U2" t="s">
@@ -3095,19 +3092,74 @@
       <c r="W2" t="s">
         <v>527</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" s="21"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="E3" s="13">
+        <v>12345</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>513</v>
+      </c>
+      <c r="M3" t="s">
+        <v>514</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
+        <v>515</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="U3" t="s">
+        <v>523</v>
+      </c>
+      <c r="V3" t="s">
+        <v>530</v>
+      </c>
+      <c r="W3" t="s">
         <v>527</v>
       </c>
-      <c r="Z2" s="22"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="Z3" s="21"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="E4" s="3"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -3118,30 +3170,31 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3157,343 +3210,343 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.109375" style="11" customWidth="1"/>
-    <col min="2" max="16384" width="8.6640625" style="11"/>
+    <col min="1" max="1" width="40.109375" style="10" customWidth="1"/>
+    <col min="2" max="16384" width="8.6640625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>44927</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <f>A2+7</f>
         <v>44934</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <f t="shared" ref="A4:A54" si="0">A3+7</f>
         <v>44941</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>44948</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>44955</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>44962</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>44969</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>44976</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>44983</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <f t="shared" si="0"/>
         <v>44990</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <f t="shared" si="0"/>
         <v>44997</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <f t="shared" si="0"/>
         <v>45004</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>45011</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>45018</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>45025</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>45032</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>45039</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>45046</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <f t="shared" si="0"/>
         <v>45053</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <f t="shared" si="0"/>
         <v>45060</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <f t="shared" si="0"/>
         <v>45067</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <f t="shared" si="0"/>
         <v>45074</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <f t="shared" si="0"/>
         <v>45081</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12">
+      <c r="A25" s="11">
         <f t="shared" si="0"/>
         <v>45088</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
+      <c r="A26" s="11">
         <f t="shared" si="0"/>
         <v>45095</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
+      <c r="A27" s="11">
         <f t="shared" si="0"/>
         <v>45102</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
+      <c r="A28" s="11">
         <f t="shared" si="0"/>
         <v>45109</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+      <c r="A29" s="11">
         <f t="shared" si="0"/>
         <v>45116</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12">
+      <c r="A30" s="11">
         <f t="shared" si="0"/>
         <v>45123</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12">
+      <c r="A31" s="11">
         <f t="shared" si="0"/>
         <v>45130</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12">
+      <c r="A32" s="11">
         <f t="shared" si="0"/>
         <v>45137</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12">
+      <c r="A33" s="11">
         <f t="shared" si="0"/>
         <v>45144</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12">
+      <c r="A34" s="11">
         <f t="shared" si="0"/>
         <v>45151</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12">
+      <c r="A35" s="11">
         <f t="shared" si="0"/>
         <v>45158</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12">
+      <c r="A36" s="11">
         <f t="shared" si="0"/>
         <v>45165</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+      <c r="A37" s="11">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+      <c r="A38" s="11">
         <f t="shared" si="0"/>
         <v>45179</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+      <c r="A39" s="11">
         <f t="shared" si="0"/>
         <v>45186</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+      <c r="A40" s="11">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
+      <c r="A41" s="11">
         <f t="shared" si="0"/>
         <v>45200</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+      <c r="A42" s="11">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+      <c r="A43" s="11">
         <f t="shared" si="0"/>
         <v>45214</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+      <c r="A44" s="11">
         <f t="shared" si="0"/>
         <v>45221</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
+      <c r="A45" s="11">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
+      <c r="A46" s="11">
         <f t="shared" si="0"/>
         <v>45235</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+      <c r="A47" s="11">
         <f t="shared" si="0"/>
         <v>45242</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
+      <c r="A48" s="11">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
+      <c r="A49" s="11">
         <f t="shared" si="0"/>
         <v>45256</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+      <c r="A50" s="11">
         <f t="shared" si="0"/>
         <v>45263</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
+      <c r="A51" s="11">
         <f t="shared" si="0"/>
         <v>45270</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
+      <c r="A52" s="11">
         <f t="shared" si="0"/>
         <v>45277</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
+      <c r="A53" s="11">
         <f t="shared" si="0"/>
         <v>45284</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
+      <c r="A54" s="11">
         <f t="shared" si="0"/>
         <v>45291</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
+      <c r="A55" s="11"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
+      <c r="A56" s="11"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
+      <c r="A57" s="11"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
+      <c r="A58" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3511,14 +3564,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3526,103 +3579,103 @@
       <c r="A2" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>44927</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>44948</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>44949</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>44950</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>45023</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>45038</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>45047</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>45079</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>45106</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>45147</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>45242</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>45243</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>45285</v>
       </c>
     </row>
@@ -3648,7 +3701,7 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3710,7 +3763,7 @@
       <c r="D4" t="s">
         <v>224</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3724,7 +3777,7 @@
       <c r="D5" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3738,7 +3791,7 @@
       <c r="D6" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3752,7 +3805,7 @@
       <c r="D7" t="s">
         <v>230</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3766,7 +3819,7 @@
       <c r="D8" t="s">
         <v>232</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3780,7 +3833,7 @@
       <c r="D9" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3794,7 +3847,7 @@
       <c r="D10" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3808,7 +3861,7 @@
       <c r="D11" t="s">
         <v>238</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3822,7 +3875,7 @@
       <c r="D12" t="s">
         <v>240</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3836,7 +3889,7 @@
       <c r="D13" t="s">
         <v>241</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3850,7 +3903,7 @@
       <c r="D14" t="s">
         <v>242</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>8</v>
       </c>
     </row>
@@ -3864,7 +3917,7 @@
       <c r="D16" t="s">
         <v>269</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3878,7 +3931,7 @@
       <c r="D17" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3892,7 +3945,7 @@
       <c r="D18" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3906,7 +3959,7 @@
       <c r="D19" t="s">
         <v>271</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3920,7 +3973,7 @@
       <c r="D20" t="s">
         <v>272</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3934,7 +3987,7 @@
       <c r="D21" t="s">
         <v>273</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3948,7 +4001,7 @@
       <c r="D22" t="s">
         <v>274</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3962,7 +4015,7 @@
       <c r="D23" t="s">
         <v>275</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3976,7 +4029,7 @@
       <c r="D24" t="s">
         <v>276</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>4</v>
       </c>
     </row>
@@ -3990,7 +4043,7 @@
       <c r="D25" t="s">
         <v>277</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>4</v>
       </c>
     </row>
@@ -4004,7 +4057,7 @@
       <c r="D26" t="s">
         <v>281</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>4</v>
       </c>
     </row>
@@ -4018,7 +4071,7 @@
       <c r="D27" t="s">
         <v>277</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>4</v>
       </c>
     </row>
@@ -4032,7 +4085,7 @@
       <c r="D28" t="s">
         <v>282</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>4</v>
       </c>
     </row>
@@ -4046,7 +4099,7 @@
       <c r="D31" t="s">
         <v>299</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4060,7 +4113,7 @@
       <c r="D32" t="s">
         <v>269</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4074,7 +4127,7 @@
       <c r="D33" t="s">
         <v>269</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4088,7 +4141,7 @@
       <c r="D34" t="s">
         <v>300</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4102,7 +4155,7 @@
       <c r="D35" t="s">
         <v>300</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4116,7 +4169,7 @@
       <c r="D36" t="s">
         <v>301</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4130,7 +4183,7 @@
       <c r="D37" t="s">
         <v>301</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4144,7 +4197,7 @@
       <c r="D38" t="s">
         <v>301</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4158,7 +4211,7 @@
       <c r="D39" t="s">
         <v>302</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4172,7 +4225,7 @@
       <c r="D40" t="s">
         <v>303</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4186,7 +4239,7 @@
       <c r="D41" t="s">
         <v>302</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4200,7 +4253,7 @@
       <c r="D42" t="s">
         <v>304</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4214,7 +4267,7 @@
       <c r="D43" t="s">
         <v>305</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4228,7 +4281,7 @@
       <c r="D44" t="s">
         <v>302</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4242,7 +4295,7 @@
       <c r="D45" t="s">
         <v>306</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4256,7 +4309,7 @@
       <c r="D46" t="s">
         <v>302</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4270,7 +4323,7 @@
       <c r="D47" t="s">
         <v>307</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4284,7 +4337,7 @@
       <c r="D48" t="s">
         <v>307</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4298,7 +4351,7 @@
       <c r="D49" t="s">
         <v>274</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4312,7 +4365,7 @@
       <c r="D50" t="s">
         <v>308</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4326,7 +4379,7 @@
       <c r="D51" t="s">
         <v>305</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="7">
         <v>3</v>
       </c>
     </row>
@@ -4353,29 +4406,29 @@
     <col min="5" max="5" width="40.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="19" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:23" s="18" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E6"/>
-      <c r="W6" s="5" t="s">
+      <c r="W6" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6258,7 +6311,7 @@
       <c r="C109" t="s">
         <v>347</v>
       </c>
-      <c r="D109" s="20" t="s">
+      <c r="D109" s="19" t="s">
         <v>483</v>
       </c>
       <c r="E109" t="s">
@@ -6581,7 +6634,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
